--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_142.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_142.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:03.700000', '0:00:07.500000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(33.431496, 38.307687)]</t>
+          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:34.340000', '0:00:35.880000'), ('0:00:08.300000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:00:12.540000', '0:00:25.940000'), ('0:00:52.420000', '0:01:01.260000'), ('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1274509803921569</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['A', 'D', 'D/b7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:06.090000', '0:00:13.659705')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:31.439841', '0:00:35.781972')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(72.5, 93.84)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[('0:01:24', '0:01:30.840000'), ('0:00:28.800000', '0:00:36.860000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:04.860000', '0:00:07.560000'), ('0:00:02.360000', '0:00:05.680000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.18, 61.0)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3661356628982528</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['Bb', 'Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['D', 'D', 'D/7', 'D/6', 'D/5']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(5.7, 10.9)]</t>
+          <t>[('0:03:21.950000', '0:03:34.620000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.325509', '0:00:04.348503')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.612267', '0:00:20.410362')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3860294117647059</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(40.5, 42.74)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(70.06, 87.32)]</t>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.78, 19.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.36, 16.52)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
